--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3PE_EN.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3PE_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="2115" windowWidth="20115" windowHeight="5955" tabRatio="879" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="2216">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -25571,16 +25576,20 @@
 8.Verify popup msg: You have entered invalid mobile number.
 9.Capture Screen</t>
   </si>
+  <si>
+    <t xml:space="preserve">case duplicate no.2
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26276,6 +26285,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -27159,7 +27188,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="677">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -28510,30 +28539,6 @@
     <xf numFmtId="0" fontId="55" fillId="14" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="14" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="14" borderId="5" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="51" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="14" borderId="51" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="53" fillId="14" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="14" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -28674,74 +28679,6 @@
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -28823,6 +28760,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -28835,24 +28788,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28866,29 +28913,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -28917,58 +28946,25 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -28989,16 +28985,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29006,6 +29005,12 @@
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -29019,20 +29024,20 @@
     <xf numFmtId="0" fontId="27" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="69" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -29050,6 +29055,43 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="49" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="69" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="5" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="14" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="14" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="103" fillId="14" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -29574,7 +29616,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29618,7 +29660,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29662,7 +29704,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29706,7 +29748,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29750,7 +29792,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29794,7 +29836,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29838,7 +29880,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29882,7 +29924,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29926,7 +29968,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29970,7 +30012,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30014,7 +30056,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30058,7 +30100,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30102,7 +30144,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30146,7 +30188,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30190,7 +30232,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30386,7 +30428,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33389,7 +33431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33424,7 +33466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -34126,25 +34168,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="566" t="s">
+      <c r="C5" s="586" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="567"/>
-      <c r="E5" s="568"/>
+      <c r="D5" s="587"/>
+      <c r="E5" s="588"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="558"/>
-      <c r="I5" s="558"/>
-      <c r="J5" s="558"/>
+      <c r="H5" s="584"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="584"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="589"/>
-      <c r="E6" s="590"/>
+      <c r="C6" s="560"/>
+      <c r="D6" s="561"/>
+      <c r="E6" s="562"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -34154,23 +34196,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="569"/>
-      <c r="D7" s="570"/>
-      <c r="E7" s="571"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="590"/>
+      <c r="E7" s="591"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="558"/>
-      <c r="J7" s="558"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="584"/>
+      <c r="J7" s="584"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="572" t="s">
+      <c r="C8" s="592" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="573"/>
-      <c r="E8" s="574"/>
+      <c r="D8" s="593"/>
+      <c r="E8" s="594"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -34193,58 +34235,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="559" t="s">
+      <c r="B11" s="578" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="560"/>
-      <c r="D11" s="561"/>
-      <c r="E11" s="561"/>
-      <c r="F11" s="562"/>
+      <c r="C11" s="579"/>
+      <c r="D11" s="585"/>
+      <c r="E11" s="585"/>
+      <c r="F11" s="580"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="563"/>
-      <c r="D12" s="564"/>
-      <c r="E12" s="564"/>
-      <c r="F12" s="565"/>
+      <c r="C12" s="571"/>
+      <c r="D12" s="573"/>
+      <c r="E12" s="573"/>
+      <c r="F12" s="574"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="563"/>
-      <c r="D13" s="564"/>
-      <c r="E13" s="564"/>
-      <c r="F13" s="565"/>
+      <c r="C13" s="571"/>
+      <c r="D13" s="573"/>
+      <c r="E13" s="573"/>
+      <c r="F13" s="574"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="563"/>
-      <c r="D14" s="564"/>
-      <c r="E14" s="564"/>
-      <c r="F14" s="565"/>
+      <c r="C14" s="571"/>
+      <c r="D14" s="573"/>
+      <c r="E14" s="573"/>
+      <c r="F14" s="574"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="563"/>
-      <c r="D15" s="564"/>
-      <c r="E15" s="564"/>
-      <c r="F15" s="565"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="574"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="599"/>
-      <c r="D16" s="600"/>
-      <c r="E16" s="600"/>
-      <c r="F16" s="601"/>
+      <c r="C16" s="575"/>
+      <c r="D16" s="576"/>
+      <c r="E16" s="576"/>
+      <c r="F16" s="577"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -34254,13 +34296,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="559" t="s">
+      <c r="B18" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="560"/>
-      <c r="D18" s="560"/>
-      <c r="E18" s="560"/>
-      <c r="F18" s="562"/>
+      <c r="C18" s="579"/>
+      <c r="D18" s="579"/>
+      <c r="E18" s="579"/>
+      <c r="F18" s="580"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -34272,10 +34314,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="594" t="s">
+      <c r="E19" s="566" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="602"/>
+      <c r="F19" s="581"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -34287,73 +34329,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="563" t="s">
+      <c r="E20" s="571" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="575"/>
+      <c r="F20" s="572"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="563"/>
-      <c r="F21" s="575"/>
+      <c r="E21" s="571"/>
+      <c r="F21" s="572"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="563"/>
-      <c r="F22" s="575"/>
+      <c r="E22" s="571"/>
+      <c r="F22" s="572"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="563"/>
-      <c r="F23" s="575"/>
+      <c r="E23" s="571"/>
+      <c r="F23" s="572"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="563"/>
-      <c r="F24" s="575"/>
+      <c r="E24" s="571"/>
+      <c r="F24" s="572"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="563"/>
-      <c r="F25" s="575"/>
+      <c r="E25" s="571"/>
+      <c r="F25" s="572"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="563"/>
-      <c r="F26" s="575"/>
+      <c r="E26" s="571"/>
+      <c r="F26" s="572"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="563"/>
-      <c r="F27" s="575"/>
+      <c r="E27" s="571"/>
+      <c r="F27" s="572"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="563"/>
-      <c r="F28" s="575"/>
+      <c r="E28" s="571"/>
+      <c r="F28" s="572"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="576"/>
-      <c r="F29" s="577"/>
+      <c r="E29" s="582"/>
+      <c r="F29" s="583"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -34363,67 +34405,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="591" t="s">
+      <c r="B31" s="563" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="592"/>
-      <c r="D31" s="592"/>
-      <c r="E31" s="593"/>
+      <c r="C31" s="564"/>
+      <c r="D31" s="564"/>
+      <c r="E31" s="565"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="594" t="s">
+      <c r="C32" s="566" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="595"/>
-      <c r="E32" s="595"/>
+      <c r="D32" s="567"/>
+      <c r="E32" s="567"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="580"/>
-      <c r="D33" s="581"/>
-      <c r="E33" s="581"/>
+      <c r="C33" s="552"/>
+      <c r="D33" s="553"/>
+      <c r="E33" s="553"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="596"/>
-      <c r="D34" s="597"/>
-      <c r="E34" s="598"/>
+      <c r="C34" s="568"/>
+      <c r="D34" s="569"/>
+      <c r="E34" s="570"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="578"/>
-      <c r="D35" s="579"/>
-      <c r="E35" s="579"/>
+      <c r="C35" s="550"/>
+      <c r="D35" s="551"/>
+      <c r="E35" s="551"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="580"/>
-      <c r="D36" s="581"/>
-      <c r="E36" s="581"/>
+      <c r="C36" s="552"/>
+      <c r="D36" s="553"/>
+      <c r="E36" s="553"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="582"/>
-      <c r="D37" s="583"/>
-      <c r="E37" s="584"/>
+      <c r="C37" s="554"/>
+      <c r="D37" s="555"/>
+      <c r="E37" s="556"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="585"/>
-      <c r="D38" s="586"/>
-      <c r="E38" s="587"/>
+      <c r="C38" s="557"/>
+      <c r="D38" s="558"/>
+      <c r="E38" s="559"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -34449,6 +34491,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -34465,22 +34523,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34548,19 +34590,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="659" t="s">
+      <c r="A2" s="651" t="s">
         <v>1463</v>
       </c>
-      <c r="B2" s="660"/>
-      <c r="C2" s="660"/>
-      <c r="D2" s="660"/>
-      <c r="E2" s="660"/>
-      <c r="F2" s="660"/>
-      <c r="G2" s="660"/>
-      <c r="H2" s="660"/>
-      <c r="I2" s="660"/>
-      <c r="J2" s="660"/>
-      <c r="K2" s="661"/>
+      <c r="B2" s="652"/>
+      <c r="C2" s="652"/>
+      <c r="D2" s="652"/>
+      <c r="E2" s="652"/>
+      <c r="F2" s="652"/>
+      <c r="G2" s="652"/>
+      <c r="H2" s="652"/>
+      <c r="I2" s="652"/>
+      <c r="J2" s="652"/>
+      <c r="K2" s="653"/>
     </row>
     <row r="3" spans="1:12" s="412" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="314" t="s">
@@ -39321,10 +39363,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="662" t="s">
+      <c r="A2" s="654" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="662"/>
+      <c r="B2" s="654"/>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
@@ -39536,10 +39578,10 @@
       <c r="J12" s="449"/>
     </row>
     <row r="13" spans="1:11" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="662" t="s">
+      <c r="A13" s="654" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="662"/>
+      <c r="B13" s="654"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -39804,8 +39846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L931"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B36"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39826,86 +39868,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="663" t="s">
+      <c r="A1" s="659" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="665" t="s">
+      <c r="B1" s="657" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="665" t="s">
+      <c r="C1" s="657" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="665" t="s">
+      <c r="D1" s="657" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="665" t="s">
+      <c r="E1" s="657" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="665" t="s">
+      <c r="F1" s="657" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="665" t="s">
+      <c r="G1" s="657" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="665" t="s">
+      <c r="H1" s="657" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="665" t="s">
+      <c r="I1" s="657" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="665" t="s">
+      <c r="J1" s="657" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="666" t="s">
+      <c r="K1" s="660" t="s">
         <v>529</v>
       </c>
-      <c r="L1" s="667" t="s">
+      <c r="L1" s="655" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="664"/>
-      <c r="B2" s="664"/>
-      <c r="C2" s="664"/>
-      <c r="D2" s="664"/>
-      <c r="E2" s="664"/>
-      <c r="F2" s="664"/>
-      <c r="G2" s="664"/>
-      <c r="H2" s="664"/>
-      <c r="I2" s="664"/>
-      <c r="J2" s="664"/>
-      <c r="K2" s="664"/>
-      <c r="L2" s="668"/>
+      <c r="A2" s="658"/>
+      <c r="B2" s="658"/>
+      <c r="C2" s="658"/>
+      <c r="D2" s="658"/>
+      <c r="E2" s="658"/>
+      <c r="F2" s="658"/>
+      <c r="G2" s="658"/>
+      <c r="H2" s="658"/>
+      <c r="I2" s="658"/>
+      <c r="J2" s="658"/>
+      <c r="K2" s="658"/>
+      <c r="L2" s="656"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="543" t="s">
+      <c r="A3" s="535" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="544"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="544"/>
-      <c r="E3" s="544"/>
-      <c r="F3" s="544"/>
-      <c r="G3" s="544"/>
-      <c r="H3" s="544"/>
-      <c r="I3" s="544"/>
-      <c r="J3" s="545"/>
+      <c r="B3" s="536"/>
+      <c r="C3" s="536"/>
+      <c r="D3" s="536"/>
+      <c r="E3" s="536"/>
+      <c r="F3" s="536"/>
+      <c r="G3" s="536"/>
+      <c r="H3" s="536"/>
+      <c r="I3" s="536"/>
+      <c r="J3" s="537"/>
       <c r="K3" s="218"/>
       <c r="L3" s="219"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="546" t="s">
+      <c r="A4" s="538" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="544"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="544"/>
-      <c r="E4" s="544"/>
-      <c r="F4" s="544"/>
-      <c r="G4" s="544"/>
-      <c r="H4" s="544"/>
-      <c r="I4" s="544"/>
-      <c r="J4" s="545"/>
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
+      <c r="F4" s="536"/>
+      <c r="G4" s="536"/>
+      <c r="H4" s="536"/>
+      <c r="I4" s="536"/>
+      <c r="J4" s="537"/>
       <c r="K4" s="220"/>
       <c r="L4" s="221"/>
     </row>
@@ -40020,7 +40062,7 @@
       <c r="E9" s="482" t="s">
         <v>540</v>
       </c>
-      <c r="F9" s="483"/>
+      <c r="F9" s="675"/>
       <c r="G9" s="491"/>
       <c r="H9" s="492"/>
       <c r="I9" s="493"/>
@@ -40028,43 +40070,45 @@
       <c r="K9" s="494"/>
       <c r="L9" s="495"/>
     </row>
-    <row r="10" spans="1:12" s="488" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="478" t="s">
+    <row r="10" spans="1:12" s="673" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="669" t="s">
         <v>1450</v>
       </c>
-      <c r="B10" s="496" t="s">
+      <c r="B10" s="670" t="s">
         <v>537</v>
       </c>
-      <c r="C10" s="497" t="s">
+      <c r="C10" s="671" t="s">
         <v>551</v>
       </c>
-      <c r="D10" s="496" t="s">
+      <c r="D10" s="670" t="s">
         <v>552</v>
       </c>
-      <c r="E10" s="482" t="s">
+      <c r="E10" s="674" t="s">
         <v>553</v>
       </c>
-      <c r="F10" s="498"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="501"/>
-      <c r="J10" s="502"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="503"/>
+      <c r="F10" s="676"/>
+      <c r="G10" s="677"/>
+      <c r="H10" s="678"/>
+      <c r="I10" s="679"/>
+      <c r="J10" s="681" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K10" s="680"/>
+      <c r="L10" s="672"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="543" t="s">
+      <c r="A11" s="535" t="s">
         <v>554</v>
       </c>
-      <c r="B11" s="544"/>
-      <c r="C11" s="547"/>
-      <c r="D11" s="544"/>
-      <c r="E11" s="544"/>
-      <c r="F11" s="544"/>
-      <c r="G11" s="544"/>
-      <c r="H11" s="544"/>
-      <c r="I11" s="544"/>
-      <c r="J11" s="545"/>
+      <c r="B11" s="536"/>
+      <c r="C11" s="539"/>
+      <c r="D11" s="536"/>
+      <c r="E11" s="536"/>
+      <c r="F11" s="539"/>
+      <c r="G11" s="539"/>
+      <c r="H11" s="539"/>
+      <c r="I11" s="539"/>
+      <c r="J11" s="541"/>
       <c r="K11" s="218"/>
       <c r="L11" s="218"/>
     </row>
@@ -40072,31 +40116,31 @@
       <c r="A12" s="478" t="s">
         <v>1451</v>
       </c>
-      <c r="B12" s="504" t="s">
+      <c r="B12" s="496" t="s">
         <v>555</v>
       </c>
       <c r="C12" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="D12" s="505" t="s">
+      <c r="D12" s="497" t="s">
         <v>557</v>
       </c>
-      <c r="E12" s="506" t="s">
+      <c r="E12" s="498" t="s">
         <v>558</v>
       </c>
       <c r="F12" s="483"/>
-      <c r="G12" s="507"/>
+      <c r="G12" s="499"/>
       <c r="H12" s="484"/>
       <c r="I12" s="485"/>
-      <c r="J12" s="508"/>
-      <c r="K12" s="509"/>
-      <c r="L12" s="510"/>
+      <c r="J12" s="500"/>
+      <c r="K12" s="501"/>
+      <c r="L12" s="502"/>
     </row>
     <row r="13" spans="1:12" s="488" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="478" t="s">
         <v>1452</v>
       </c>
-      <c r="B13" s="504" t="s">
+      <c r="B13" s="496" t="s">
         <v>559</v>
       </c>
       <c r="C13" s="481" t="s">
@@ -40105,30 +40149,30 @@
       <c r="D13" s="481" t="s">
         <v>560</v>
       </c>
-      <c r="E13" s="506" t="s">
+      <c r="E13" s="498" t="s">
         <v>561</v>
       </c>
       <c r="F13" s="483"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="512"/>
+      <c r="G13" s="503"/>
+      <c r="H13" s="504"/>
       <c r="I13" s="485"/>
-      <c r="J13" s="508"/>
-      <c r="K13" s="509"/>
-      <c r="L13" s="510"/>
+      <c r="J13" s="500"/>
+      <c r="K13" s="501"/>
+      <c r="L13" s="502"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="543" t="s">
+      <c r="A14" s="535" t="s">
         <v>562</v>
       </c>
-      <c r="B14" s="544"/>
-      <c r="C14" s="544"/>
-      <c r="D14" s="544"/>
-      <c r="E14" s="544"/>
-      <c r="F14" s="544"/>
-      <c r="G14" s="544"/>
-      <c r="H14" s="544"/>
-      <c r="I14" s="544"/>
-      <c r="J14" s="545"/>
+      <c r="B14" s="536"/>
+      <c r="C14" s="536"/>
+      <c r="D14" s="536"/>
+      <c r="E14" s="536"/>
+      <c r="F14" s="536"/>
+      <c r="G14" s="536"/>
+      <c r="H14" s="536"/>
+      <c r="I14" s="536"/>
+      <c r="J14" s="537"/>
       <c r="K14" s="222"/>
       <c r="L14" s="223"/>
     </row>
@@ -40136,25 +40180,25 @@
       <c r="A15" s="478" t="s">
         <v>1453</v>
       </c>
-      <c r="B15" s="513" t="s">
+      <c r="B15" s="505" t="s">
         <v>563</v>
       </c>
       <c r="C15" s="481" t="s">
         <v>564</v>
       </c>
-      <c r="D15" s="514" t="s">
+      <c r="D15" s="506" t="s">
         <v>620</v>
       </c>
-      <c r="E15" s="506" t="s">
+      <c r="E15" s="498" t="s">
         <v>621</v>
       </c>
-      <c r="F15" s="511"/>
-      <c r="G15" s="511"/>
+      <c r="F15" s="503"/>
+      <c r="G15" s="503"/>
       <c r="H15" s="484"/>
       <c r="I15" s="485"/>
-      <c r="J15" s="511"/>
-      <c r="K15" s="509"/>
-      <c r="L15" s="510"/>
+      <c r="J15" s="503"/>
+      <c r="K15" s="501"/>
+      <c r="L15" s="502"/>
     </row>
     <row r="16" spans="1:12" s="488" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="478" t="s">
@@ -40166,33 +40210,33 @@
       <c r="C16" s="481" t="s">
         <v>564</v>
       </c>
-      <c r="D16" s="506" t="s">
+      <c r="D16" s="498" t="s">
         <v>566</v>
       </c>
       <c r="E16" s="482" t="s">
         <v>567</v>
       </c>
-      <c r="F16" s="511"/>
-      <c r="G16" s="511"/>
+      <c r="F16" s="503"/>
+      <c r="G16" s="503"/>
       <c r="H16" s="484"/>
       <c r="I16" s="485"/>
-      <c r="J16" s="511"/>
-      <c r="K16" s="515"/>
-      <c r="L16" s="516"/>
+      <c r="J16" s="503"/>
+      <c r="K16" s="507"/>
+      <c r="L16" s="508"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="548" t="s">
+      <c r="A17" s="540" t="s">
         <v>568</v>
       </c>
-      <c r="B17" s="547"/>
-      <c r="C17" s="547"/>
-      <c r="D17" s="547"/>
-      <c r="E17" s="547"/>
-      <c r="F17" s="547"/>
-      <c r="G17" s="547"/>
-      <c r="H17" s="547"/>
-      <c r="I17" s="547"/>
-      <c r="J17" s="549"/>
+      <c r="B17" s="539"/>
+      <c r="C17" s="539"/>
+      <c r="D17" s="539"/>
+      <c r="E17" s="539"/>
+      <c r="F17" s="539"/>
+      <c r="G17" s="539"/>
+      <c r="H17" s="539"/>
+      <c r="I17" s="539"/>
+      <c r="J17" s="541"/>
       <c r="K17" s="224"/>
       <c r="L17" s="225"/>
     </row>
@@ -40358,29 +40402,29 @@
       <c r="K25" s="228"/>
       <c r="L25" s="229"/>
     </row>
-    <row r="26" spans="1:12" s="524" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="516" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="478" t="s">
         <v>1455</v>
       </c>
-      <c r="B26" s="517" t="s">
+      <c r="B26" s="509" t="s">
         <v>592</v>
       </c>
-      <c r="C26" s="518" t="s">
+      <c r="C26" s="510" t="s">
         <v>593</v>
       </c>
-      <c r="D26" s="519" t="s">
+      <c r="D26" s="511" t="s">
         <v>594</v>
       </c>
-      <c r="E26" s="519" t="s">
+      <c r="E26" s="511" t="s">
         <v>595</v>
       </c>
-      <c r="F26" s="520"/>
-      <c r="G26" s="520"/>
-      <c r="H26" s="521"/>
-      <c r="I26" s="522"/>
-      <c r="J26" s="523"/>
-      <c r="K26" s="523"/>
-      <c r="L26" s="523"/>
+      <c r="F26" s="512"/>
+      <c r="G26" s="512"/>
+      <c r="H26" s="513"/>
+      <c r="I26" s="514"/>
+      <c r="J26" s="515"/>
+      <c r="K26" s="515"/>
+      <c r="L26" s="515"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="226" t="s">
@@ -40402,25 +40446,25 @@
       <c r="A28" s="478" t="s">
         <v>1456</v>
       </c>
-      <c r="B28" s="525" t="s">
+      <c r="B28" s="517" t="s">
         <v>597</v>
       </c>
-      <c r="C28" s="526" t="s">
+      <c r="C28" s="518" t="s">
         <v>598</v>
       </c>
-      <c r="D28" s="526" t="s">
+      <c r="D28" s="518" t="s">
         <v>599</v>
       </c>
-      <c r="E28" s="527" t="s">
+      <c r="E28" s="519" t="s">
         <v>600</v>
       </c>
-      <c r="F28" s="528"/>
-      <c r="G28" s="528"/>
-      <c r="H28" s="529"/>
-      <c r="I28" s="530"/>
-      <c r="J28" s="531"/>
-      <c r="K28" s="532"/>
-      <c r="L28" s="533"/>
+      <c r="F28" s="520"/>
+      <c r="G28" s="520"/>
+      <c r="H28" s="521"/>
+      <c r="I28" s="522"/>
+      <c r="J28" s="523"/>
+      <c r="K28" s="524"/>
+      <c r="L28" s="525"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="226" t="s">
@@ -40442,39 +40486,39 @@
       <c r="A30" s="478" t="s">
         <v>1457</v>
       </c>
-      <c r="B30" s="525" t="s">
+      <c r="B30" s="517" t="s">
         <v>602</v>
       </c>
-      <c r="C30" s="526" t="s">
+      <c r="C30" s="518" t="s">
         <v>603</v>
       </c>
-      <c r="D30" s="526" t="s">
+      <c r="D30" s="518" t="s">
         <v>604</v>
       </c>
-      <c r="E30" s="527" t="s">
+      <c r="E30" s="519" t="s">
         <v>605</v>
       </c>
       <c r="F30" s="479"/>
       <c r="G30" s="479"/>
-      <c r="H30" s="529"/>
-      <c r="I30" s="530"/>
-      <c r="J30" s="534"/>
-      <c r="K30" s="535"/>
-      <c r="L30" s="535"/>
+      <c r="H30" s="521"/>
+      <c r="I30" s="522"/>
+      <c r="J30" s="526"/>
+      <c r="K30" s="527"/>
+      <c r="L30" s="527"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="550" t="s">
+      <c r="A31" s="542" t="s">
         <v>606</v>
       </c>
-      <c r="B31" s="547"/>
-      <c r="C31" s="547"/>
-      <c r="D31" s="547"/>
-      <c r="E31" s="547"/>
-      <c r="F31" s="547"/>
-      <c r="G31" s="547"/>
-      <c r="H31" s="547"/>
-      <c r="I31" s="547"/>
-      <c r="J31" s="549"/>
+      <c r="B31" s="539"/>
+      <c r="C31" s="539"/>
+      <c r="D31" s="539"/>
+      <c r="E31" s="539"/>
+      <c r="F31" s="539"/>
+      <c r="G31" s="539"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="541"/>
       <c r="K31" s="241"/>
       <c r="L31" s="241"/>
     </row>
@@ -40482,121 +40526,121 @@
       <c r="A32" s="478" t="s">
         <v>1458</v>
       </c>
-      <c r="B32" s="527" t="s">
+      <c r="B32" s="519" t="s">
         <v>607</v>
       </c>
-      <c r="C32" s="527" t="s">
+      <c r="C32" s="519" t="s">
         <v>608</v>
       </c>
-      <c r="D32" s="527" t="s">
+      <c r="D32" s="519" t="s">
         <v>622</v>
       </c>
-      <c r="E32" s="527" t="s">
+      <c r="E32" s="519" t="s">
         <v>609</v>
       </c>
-      <c r="F32" s="536"/>
-      <c r="G32" s="536"/>
-      <c r="H32" s="512"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
-      <c r="K32" s="534"/>
-      <c r="L32" s="534"/>
+      <c r="F32" s="528"/>
+      <c r="G32" s="528"/>
+      <c r="H32" s="504"/>
+      <c r="I32" s="529"/>
+      <c r="J32" s="530"/>
+      <c r="K32" s="526"/>
+      <c r="L32" s="526"/>
     </row>
     <row r="33" spans="1:12" s="488" customFormat="1" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="478" t="s">
         <v>1459</v>
       </c>
-      <c r="B33" s="527" t="s">
+      <c r="B33" s="519" t="s">
         <v>610</v>
       </c>
-      <c r="C33" s="527" t="s">
+      <c r="C33" s="519" t="s">
         <v>608</v>
       </c>
-      <c r="D33" s="539" t="s">
+      <c r="D33" s="531" t="s">
         <v>611</v>
       </c>
-      <c r="E33" s="527" t="s">
+      <c r="E33" s="519" t="s">
         <v>612</v>
       </c>
-      <c r="F33" s="536"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="512"/>
-      <c r="I33" s="537"/>
-      <c r="J33" s="534"/>
-      <c r="K33" s="534"/>
-      <c r="L33" s="534"/>
+      <c r="F33" s="528"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="504"/>
+      <c r="I33" s="529"/>
+      <c r="J33" s="526"/>
+      <c r="K33" s="526"/>
+      <c r="L33" s="526"/>
     </row>
     <row r="34" spans="1:12" s="488" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="478" t="s">
         <v>1460</v>
       </c>
-      <c r="B34" s="527" t="s">
+      <c r="B34" s="519" t="s">
         <v>613</v>
       </c>
-      <c r="C34" s="527" t="s">
+      <c r="C34" s="519" t="s">
         <v>608</v>
       </c>
-      <c r="D34" s="527" t="s">
+      <c r="D34" s="519" t="s">
         <v>624</v>
       </c>
-      <c r="E34" s="527" t="s">
+      <c r="E34" s="519" t="s">
         <v>623</v>
       </c>
-      <c r="F34" s="536"/>
-      <c r="G34" s="536"/>
-      <c r="H34" s="512"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="534"/>
-      <c r="K34" s="540"/>
-      <c r="L34" s="540"/>
+      <c r="F34" s="528"/>
+      <c r="G34" s="528"/>
+      <c r="H34" s="504"/>
+      <c r="I34" s="529"/>
+      <c r="J34" s="526"/>
+      <c r="K34" s="532"/>
+      <c r="L34" s="532"/>
     </row>
     <row r="35" spans="1:12" s="488" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="478" t="s">
         <v>1461</v>
       </c>
-      <c r="B35" s="527" t="s">
+      <c r="B35" s="519" t="s">
         <v>614</v>
       </c>
-      <c r="C35" s="527" t="s">
+      <c r="C35" s="519" t="s">
         <v>608</v>
       </c>
-      <c r="D35" s="527" t="s">
+      <c r="D35" s="519" t="s">
         <v>615</v>
       </c>
-      <c r="E35" s="527" t="s">
+      <c r="E35" s="519" t="s">
         <v>616</v>
       </c>
-      <c r="F35" s="536"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="512"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538"/>
-      <c r="K35" s="540"/>
-      <c r="L35" s="540"/>
+      <c r="F35" s="528"/>
+      <c r="G35" s="528"/>
+      <c r="H35" s="504"/>
+      <c r="I35" s="529"/>
+      <c r="J35" s="530"/>
+      <c r="K35" s="532"/>
+      <c r="L35" s="532"/>
     </row>
     <row r="36" spans="1:12" s="488" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="478" t="s">
         <v>1462</v>
       </c>
-      <c r="B36" s="527" t="s">
+      <c r="B36" s="519" t="s">
         <v>617</v>
       </c>
-      <c r="C36" s="527" t="s">
+      <c r="C36" s="519" t="s">
         <v>608</v>
       </c>
-      <c r="D36" s="527" t="s">
+      <c r="D36" s="519" t="s">
         <v>618</v>
       </c>
-      <c r="E36" s="527" t="s">
+      <c r="E36" s="519" t="s">
         <v>619</v>
       </c>
-      <c r="F36" s="536"/>
-      <c r="G36" s="536"/>
-      <c r="H36" s="512"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
-      <c r="K36" s="541"/>
-      <c r="L36" s="542"/>
+      <c r="F36" s="528"/>
+      <c r="G36" s="528"/>
+      <c r="H36" s="504"/>
+      <c r="I36" s="529"/>
+      <c r="J36" s="530"/>
+      <c r="K36" s="533"/>
+      <c r="L36" s="534"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="242"/>
@@ -53128,6 +53172,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -53135,14 +53184,10 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -53166,56 +53211,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="671" t="s">
+      <c r="A1" s="663" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="673" t="s">
+      <c r="B1" s="665" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="673" t="s">
+      <c r="C1" s="665" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="674" t="s">
+      <c r="D1" s="666" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="674" t="s">
+      <c r="E1" s="666" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="673" t="s">
+      <c r="F1" s="665" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="673" t="s">
+      <c r="G1" s="665" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="673" t="s">
+      <c r="H1" s="665" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="673" t="s">
+      <c r="I1" s="665" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="673" t="s">
+      <c r="J1" s="665" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="676" t="s">
+      <c r="K1" s="668" t="s">
         <v>529</v>
       </c>
-      <c r="L1" s="669" t="s">
+      <c r="L1" s="661" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="672"/>
-      <c r="B2" s="672"/>
-      <c r="C2" s="672"/>
-      <c r="D2" s="675"/>
-      <c r="E2" s="675"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
-      <c r="J2" s="672"/>
-      <c r="K2" s="672"/>
-      <c r="L2" s="670"/>
+      <c r="A2" s="664"/>
+      <c r="B2" s="664"/>
+      <c r="C2" s="664"/>
+      <c r="D2" s="667"/>
+      <c r="E2" s="667"/>
+      <c r="F2" s="664"/>
+      <c r="G2" s="664"/>
+      <c r="H2" s="664"/>
+      <c r="I2" s="664"/>
+      <c r="J2" s="664"/>
+      <c r="K2" s="664"/>
+      <c r="L2" s="662"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="247" t="s">
@@ -55771,10 +55816,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="603" t="s">
+      <c r="A1" s="631" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="603"/>
+      <c r="B1" s="631"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -55809,170 +55854,170 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="604" t="s">
+      <c r="A2" s="632" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="604" t="s">
+      <c r="B2" s="632" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="604" t="s">
+      <c r="C2" s="632" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="607" t="s">
+      <c r="D2" s="635" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="607"/>
-      <c r="F2" s="607"/>
-      <c r="G2" s="616" t="s">
+      <c r="E2" s="635"/>
+      <c r="F2" s="635"/>
+      <c r="G2" s="601" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="617"/>
-      <c r="I2" s="617"/>
-      <c r="J2" s="618"/>
-      <c r="K2" s="634" t="s">
+      <c r="H2" s="602"/>
+      <c r="I2" s="602"/>
+      <c r="J2" s="607"/>
+      <c r="K2" s="595" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="634"/>
-      <c r="M2" s="616" t="s">
+      <c r="L2" s="595"/>
+      <c r="M2" s="601" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="617"/>
-      <c r="O2" s="618"/>
-      <c r="P2" s="616" t="s">
+      <c r="N2" s="602"/>
+      <c r="O2" s="607"/>
+      <c r="P2" s="601" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="618"/>
-      <c r="R2" s="616" t="s">
+      <c r="Q2" s="607"/>
+      <c r="R2" s="601" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="617"/>
-      <c r="T2" s="616" t="s">
+      <c r="S2" s="602"/>
+      <c r="T2" s="601" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="617"/>
-      <c r="V2" s="617"/>
-      <c r="W2" s="617"/>
-      <c r="X2" s="618"/>
-      <c r="Y2" s="616" t="s">
+      <c r="U2" s="602"/>
+      <c r="V2" s="602"/>
+      <c r="W2" s="602"/>
+      <c r="X2" s="607"/>
+      <c r="Y2" s="601" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="617"/>
-      <c r="AA2" s="617"/>
-      <c r="AB2" s="618"/>
-      <c r="AC2" s="610" t="s">
+      <c r="Z2" s="602"/>
+      <c r="AA2" s="602"/>
+      <c r="AB2" s="607"/>
+      <c r="AC2" s="616" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="611"/>
-      <c r="AE2" s="611"/>
+      <c r="AD2" s="617"/>
+      <c r="AE2" s="617"/>
       <c r="AF2" s="626"/>
-      <c r="AG2" s="610" t="s">
+      <c r="AG2" s="616" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="611"/>
-      <c r="AI2" s="611"/>
+      <c r="AH2" s="617"/>
+      <c r="AI2" s="617"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="605"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="607"/>
-      <c r="F3" s="607"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="634" t="s">
+      <c r="A3" s="633"/>
+      <c r="B3" s="633"/>
+      <c r="C3" s="633"/>
+      <c r="D3" s="635"/>
+      <c r="E3" s="635"/>
+      <c r="F3" s="635"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="595" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="634"/>
-      <c r="M3" s="612"/>
-      <c r="N3" s="613"/>
-      <c r="O3" s="619"/>
-      <c r="P3" s="612"/>
-      <c r="Q3" s="619"/>
-      <c r="R3" s="612"/>
-      <c r="S3" s="613"/>
-      <c r="T3" s="612"/>
-      <c r="U3" s="613"/>
-      <c r="V3" s="613"/>
-      <c r="W3" s="613"/>
-      <c r="X3" s="619"/>
-      <c r="Y3" s="612"/>
-      <c r="Z3" s="613"/>
-      <c r="AA3" s="613"/>
-      <c r="AB3" s="619"/>
-      <c r="AC3" s="612"/>
-      <c r="AD3" s="613"/>
-      <c r="AE3" s="613"/>
-      <c r="AF3" s="619"/>
-      <c r="AG3" s="612"/>
-      <c r="AH3" s="613"/>
-      <c r="AI3" s="613"/>
+      <c r="L3" s="595"/>
+      <c r="M3" s="603"/>
+      <c r="N3" s="604"/>
+      <c r="O3" s="608"/>
+      <c r="P3" s="603"/>
+      <c r="Q3" s="608"/>
+      <c r="R3" s="603"/>
+      <c r="S3" s="604"/>
+      <c r="T3" s="603"/>
+      <c r="U3" s="604"/>
+      <c r="V3" s="604"/>
+      <c r="W3" s="604"/>
+      <c r="X3" s="608"/>
+      <c r="Y3" s="603"/>
+      <c r="Z3" s="604"/>
+      <c r="AA3" s="604"/>
+      <c r="AB3" s="608"/>
+      <c r="AC3" s="603"/>
+      <c r="AD3" s="604"/>
+      <c r="AE3" s="604"/>
+      <c r="AF3" s="608"/>
+      <c r="AG3" s="603"/>
+      <c r="AH3" s="604"/>
+      <c r="AI3" s="604"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="605"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="608" t="s">
+      <c r="A4" s="633"/>
+      <c r="B4" s="633"/>
+      <c r="C4" s="633"/>
+      <c r="D4" s="614" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="608" t="s">
+      <c r="E4" s="614" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="608" t="s">
+      <c r="F4" s="614" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="632" t="s">
+      <c r="G4" s="612" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="632" t="s">
+      <c r="H4" s="612" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="632" t="s">
+      <c r="I4" s="612" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="632" t="s">
+      <c r="J4" s="612" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="635" t="s">
+      <c r="K4" s="596" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="635" t="s">
+      <c r="L4" s="596" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="637" t="s">
+      <c r="M4" s="598" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="637" t="s">
+      <c r="N4" s="598" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="641" t="s">
+      <c r="O4" s="609" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="642" t="s">
+      <c r="P4" s="610" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="642" t="s">
+      <c r="Q4" s="610" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="639" t="s">
+      <c r="R4" s="605" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="639" t="s">
+      <c r="S4" s="605" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="614" t="s">
+      <c r="T4" s="618" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="630" t="s">
+      <c r="U4" s="629" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="631"/>
-      <c r="W4" s="629" t="s">
+      <c r="V4" s="630"/>
+      <c r="W4" s="600" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="629" t="s">
+      <c r="X4" s="600" t="s">
         <v>44</v>
       </c>
       <c r="Y4" s="620" t="s">
@@ -55995,45 +56040,45 @@
         <v>51</v>
       </c>
       <c r="AF4" s="628"/>
-      <c r="AG4" s="608" t="s">
+      <c r="AG4" s="614" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="608" t="s">
+      <c r="AH4" s="614" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="608" t="s">
+      <c r="AI4" s="614" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="606"/>
-      <c r="B5" s="606"/>
-      <c r="C5" s="606"/>
-      <c r="D5" s="609"/>
-      <c r="E5" s="609"/>
-      <c r="F5" s="609"/>
-      <c r="G5" s="633"/>
-      <c r="H5" s="633"/>
-      <c r="I5" s="633"/>
-      <c r="J5" s="633"/>
-      <c r="K5" s="636"/>
-      <c r="L5" s="636"/>
-      <c r="M5" s="638"/>
-      <c r="N5" s="638"/>
-      <c r="O5" s="638"/>
-      <c r="P5" s="643"/>
-      <c r="Q5" s="643"/>
-      <c r="R5" s="640"/>
-      <c r="S5" s="640"/>
-      <c r="T5" s="615"/>
+      <c r="A5" s="634"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="634"/>
+      <c r="D5" s="615"/>
+      <c r="E5" s="615"/>
+      <c r="F5" s="615"/>
+      <c r="G5" s="613"/>
+      <c r="H5" s="613"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="597"/>
+      <c r="L5" s="597"/>
+      <c r="M5" s="599"/>
+      <c r="N5" s="599"/>
+      <c r="O5" s="599"/>
+      <c r="P5" s="611"/>
+      <c r="Q5" s="611"/>
+      <c r="R5" s="606"/>
+      <c r="S5" s="606"/>
+      <c r="T5" s="619"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="629"/>
-      <c r="X5" s="629"/>
+      <c r="W5" s="600"/>
+      <c r="X5" s="600"/>
       <c r="Y5" s="621"/>
       <c r="Z5" s="621"/>
       <c r="AA5" s="52" t="s">
@@ -56050,9 +56095,9 @@
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="609"/>
-      <c r="AH5" s="609"/>
-      <c r="AI5" s="609"/>
+      <c r="AG5" s="615"/>
+      <c r="AH5" s="615"/>
+      <c r="AI5" s="615"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -56315,26 +56360,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -56351,14 +56384,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56411,7 +56456,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="648" t="s">
+      <c r="B2" s="637" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -56424,7 +56469,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="649"/>
+      <c r="B3" s="638"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -56435,7 +56480,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="644" t="s">
+      <c r="B4" s="642" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -56448,7 +56493,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="645"/>
+      <c r="B5" s="644"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -56459,7 +56504,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="645"/>
+      <c r="B6" s="644"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -56470,7 +56515,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="645"/>
+      <c r="B7" s="644"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -56481,7 +56526,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="646"/>
+      <c r="B8" s="643"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -56492,7 +56537,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="644" t="s">
+      <c r="B9" s="642" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -56505,8 +56550,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="645"/>
-      <c r="C10" s="644" t="s">
+      <c r="B10" s="644"/>
+      <c r="C10" s="642" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -56518,8 +56563,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="645"/>
-      <c r="C11" s="646"/>
+      <c r="B11" s="644"/>
+      <c r="C11" s="643"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -56529,8 +56574,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="645"/>
-      <c r="C12" s="644" t="s">
+      <c r="B12" s="644"/>
+      <c r="C12" s="642" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="107" t="s">
@@ -56544,9 +56589,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="645"/>
-      <c r="C13" s="645"/>
-      <c r="D13" s="644" t="s">
+      <c r="B13" s="644"/>
+      <c r="C13" s="644"/>
+      <c r="D13" s="642" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -56557,9 +56602,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="645"/>
-      <c r="C14" s="645"/>
-      <c r="D14" s="645"/>
+      <c r="B14" s="644"/>
+      <c r="C14" s="644"/>
+      <c r="D14" s="644"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -56568,9 +56613,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="645"/>
-      <c r="C15" s="645"/>
-      <c r="D15" s="645"/>
+      <c r="B15" s="644"/>
+      <c r="C15" s="644"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -56579,9 +56624,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="645"/>
-      <c r="C16" s="645"/>
-      <c r="D16" s="645"/>
+      <c r="B16" s="644"/>
+      <c r="C16" s="644"/>
+      <c r="D16" s="644"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -56590,9 +56635,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="645"/>
-      <c r="C17" s="645"/>
-      <c r="D17" s="646"/>
+      <c r="B17" s="644"/>
+      <c r="C17" s="644"/>
+      <c r="D17" s="643"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -56601,8 +56646,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="645"/>
-      <c r="C18" s="645"/>
+      <c r="B18" s="644"/>
+      <c r="C18" s="644"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -56614,9 +56659,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="645"/>
-      <c r="C19" s="645"/>
-      <c r="D19" s="644" t="s">
+      <c r="B19" s="644"/>
+      <c r="C19" s="644"/>
+      <c r="D19" s="642" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -56627,9 +56672,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="645"/>
-      <c r="C20" s="646"/>
-      <c r="D20" s="646"/>
+      <c r="B20" s="644"/>
+      <c r="C20" s="643"/>
+      <c r="D20" s="643"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -56638,11 +56683,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="645"/>
-      <c r="C21" s="644" t="s">
+      <c r="B21" s="644"/>
+      <c r="C21" s="642" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="644" t="s">
+      <c r="D21" s="642" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -56653,9 +56698,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="645"/>
-      <c r="C22" s="645"/>
-      <c r="D22" s="646"/>
+      <c r="B22" s="644"/>
+      <c r="C22" s="644"/>
+      <c r="D22" s="643"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -56664,9 +56709,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="645"/>
-      <c r="C23" s="645"/>
-      <c r="D23" s="644" t="s">
+      <c r="B23" s="644"/>
+      <c r="C23" s="644"/>
+      <c r="D23" s="642" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -56677,9 +56722,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="645"/>
-      <c r="C24" s="645"/>
-      <c r="D24" s="645"/>
+      <c r="B24" s="644"/>
+      <c r="C24" s="644"/>
+      <c r="D24" s="644"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -56688,9 +56733,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="645"/>
-      <c r="C25" s="645"/>
-      <c r="D25" s="646"/>
+      <c r="B25" s="644"/>
+      <c r="C25" s="644"/>
+      <c r="D25" s="643"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -56699,8 +56744,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="645"/>
-      <c r="C26" s="646"/>
+      <c r="B26" s="644"/>
+      <c r="C26" s="643"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -56712,8 +56757,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="645"/>
-      <c r="C27" s="650" t="s">
+      <c r="B27" s="644"/>
+      <c r="C27" s="639" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="107" t="s">
@@ -56728,8 +56773,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="645"/>
-      <c r="C28" s="651"/>
+      <c r="B28" s="644"/>
+      <c r="C28" s="640"/>
       <c r="D28" s="107" t="s">
         <v>134</v>
       </c>
@@ -56742,8 +56787,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="645"/>
-      <c r="C29" s="652"/>
+      <c r="B29" s="644"/>
+      <c r="C29" s="641"/>
       <c r="D29" s="107" t="s">
         <v>135</v>
       </c>
@@ -56756,7 +56801,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="645"/>
+      <c r="B30" s="644"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -56767,7 +56812,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="645"/>
+      <c r="B31" s="644"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -56778,7 +56823,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="645"/>
+      <c r="B32" s="644"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -56789,8 +56834,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="645"/>
-      <c r="C33" s="644" t="s">
+      <c r="B33" s="644"/>
+      <c r="C33" s="642" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -56802,8 +56847,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="645"/>
-      <c r="C34" s="646"/>
+      <c r="B34" s="644"/>
+      <c r="C34" s="643"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -56813,7 +56858,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="646"/>
+      <c r="B35" s="643"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -56827,7 +56872,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="644" t="s">
+      <c r="B36" s="642" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -56840,7 +56885,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="645"/>
+      <c r="B37" s="644"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -56851,7 +56896,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="645"/>
+      <c r="B38" s="644"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -56862,7 +56907,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="646"/>
+      <c r="B39" s="643"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -56876,7 +56921,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="644" t="s">
+      <c r="B40" s="642" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -56889,8 +56934,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="645"/>
-      <c r="C41" s="644" t="s">
+      <c r="B41" s="644"/>
+      <c r="C41" s="642" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -56902,8 +56947,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="645"/>
-      <c r="C42" s="646"/>
+      <c r="B42" s="644"/>
+      <c r="C42" s="643"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -56913,7 +56958,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="646"/>
+      <c r="B43" s="643"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -56924,7 +56969,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="644" t="s">
+      <c r="B44" s="642" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -56938,7 +56983,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="645"/>
+      <c r="B45" s="644"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -56949,7 +56994,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="645"/>
+      <c r="B46" s="644"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -56960,7 +57005,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="645"/>
+      <c r="B47" s="644"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -56971,7 +57016,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="646"/>
+      <c r="B48" s="643"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -57029,10 +57074,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="644" t="s">
+      <c r="C53" s="642" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="644" t="s">
+      <c r="D53" s="642" t="s">
         <v>166</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -57044,8 +57089,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="645"/>
-      <c r="D54" s="645"/>
+      <c r="C54" s="644"/>
+      <c r="D54" s="644"/>
       <c r="E54" s="66" t="s">
         <v>170</v>
       </c>
@@ -57055,8 +57100,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="645"/>
-      <c r="D55" s="646"/>
+      <c r="C55" s="644"/>
+      <c r="D55" s="643"/>
       <c r="E55" s="66" t="s">
         <v>171</v>
       </c>
@@ -57066,11 +57111,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="645"/>
-      <c r="D56" s="644" t="s">
+      <c r="C56" s="644"/>
+      <c r="D56" s="642" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="644" t="s">
+      <c r="E56" s="642" t="s">
         <v>172</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -57081,9 +57126,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="645"/>
-      <c r="D57" s="645"/>
-      <c r="E57" s="645"/>
+      <c r="C57" s="644"/>
+      <c r="D57" s="644"/>
+      <c r="E57" s="644"/>
       <c r="F57" s="66" t="s">
         <v>174</v>
       </c>
@@ -57092,9 +57137,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="645"/>
-      <c r="D58" s="645"/>
-      <c r="E58" s="646"/>
+      <c r="C58" s="644"/>
+      <c r="D58" s="644"/>
+      <c r="E58" s="643"/>
       <c r="F58" s="66" t="s">
         <v>171</v>
       </c>
@@ -57103,9 +57148,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="645"/>
-      <c r="D59" s="645"/>
-      <c r="E59" s="644" t="s">
+      <c r="C59" s="644"/>
+      <c r="D59" s="644"/>
+      <c r="E59" s="642" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -57116,9 +57161,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="645"/>
-      <c r="D60" s="646"/>
-      <c r="E60" s="646"/>
+      <c r="C60" s="644"/>
+      <c r="D60" s="643"/>
+      <c r="E60" s="643"/>
       <c r="F60" s="66" t="s">
         <v>176</v>
       </c>
@@ -57127,8 +57172,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="645"/>
-      <c r="D61" s="644" t="s">
+      <c r="C61" s="644"/>
+      <c r="D61" s="642" t="s">
         <v>168</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -57140,8 +57185,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="645"/>
-      <c r="D62" s="645"/>
+      <c r="C62" s="644"/>
+      <c r="D62" s="644"/>
       <c r="E62" s="66" t="s">
         <v>178</v>
       </c>
@@ -57151,8 +57196,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="646"/>
-      <c r="D63" s="646"/>
+      <c r="C63" s="643"/>
+      <c r="D63" s="643"/>
       <c r="E63" s="66" t="s">
         <v>179</v>
       </c>
@@ -57165,7 +57210,7 @@
       <c r="C64" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="644" t="s">
+      <c r="D64" s="642" t="s">
         <v>180</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -57178,7 +57223,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="646"/>
+      <c r="D65" s="643"/>
       <c r="E65" s="66" t="s">
         <v>182</v>
       </c>
@@ -57264,7 +57309,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="647" t="s">
+      <c r="B73" s="636" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -57277,7 +57322,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="647"/>
+      <c r="B74" s="636"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -57288,7 +57333,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="647"/>
+      <c r="B75" s="636"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -57299,7 +57344,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="647"/>
+      <c r="B76" s="636"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -57310,7 +57355,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="647"/>
+      <c r="B77" s="636"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -57321,7 +57366,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="647"/>
+      <c r="B78" s="636"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -57332,7 +57377,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="647"/>
+      <c r="B79" s="636"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -57343,7 +57388,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="647"/>
+      <c r="B80" s="636"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -57365,6 +57410,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -57377,18 +57434,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58030,10 +58075,10 @@
       <c r="M2" s="162"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="653" t="s">
+      <c r="A3" s="645" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="654"/>
+      <c r="B3" s="646"/>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
       <c r="E3" s="183"/>
@@ -58070,10 +58115,10 @@
       <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="653" t="s">
+      <c r="A5" s="645" t="s">
         <v>928</v>
       </c>
-      <c r="B5" s="654"/>
+      <c r="B5" s="646"/>
       <c r="C5" s="182"/>
       <c r="D5" s="182"/>
       <c r="E5" s="190"/>
@@ -58156,10 +58201,10 @@
       <c r="M8" s="182"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="653" t="s">
+      <c r="A9" s="645" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="654"/>
+      <c r="B9" s="646"/>
       <c r="C9" s="182"/>
       <c r="D9" s="182"/>
       <c r="E9" s="190"/>
@@ -58380,10 +58425,10 @@
       <c r="M18" s="182"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="653" t="s">
+      <c r="A19" s="645" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="654"/>
+      <c r="B19" s="646"/>
       <c r="C19" s="212"/>
       <c r="D19" s="212"/>
       <c r="E19" s="206"/>
@@ -58489,10 +58534,10 @@
       <c r="M23" s="212"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="653" t="s">
+      <c r="A24" s="645" t="s">
         <v>488</v>
       </c>
-      <c r="B24" s="654"/>
+      <c r="B24" s="646"/>
       <c r="C24" s="212"/>
       <c r="D24" s="212"/>
       <c r="E24" s="205"/>
@@ -58759,10 +58804,10 @@
       <c r="M35" s="216"/>
     </row>
     <row r="36" spans="1:13" s="280" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="655" t="s">
+      <c r="A36" s="649" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="656"/>
+      <c r="B36" s="650"/>
       <c r="C36" s="274"/>
       <c r="D36" s="275"/>
       <c r="E36" s="276"/>
@@ -58788,7 +58833,7 @@
       <c r="D37" s="274" t="s">
         <v>496</v>
       </c>
-      <c r="E37" s="657" t="s">
+      <c r="E37" s="647" t="s">
         <v>497</v>
       </c>
       <c r="F37" s="277"/>
@@ -58813,7 +58858,7 @@
       <c r="D38" s="274" t="s">
         <v>498</v>
       </c>
-      <c r="E38" s="658"/>
+      <c r="E38" s="648"/>
       <c r="F38" s="277"/>
       <c r="G38" s="277"/>
       <c r="H38" s="277"/>
@@ -58824,10 +58869,10 @@
       <c r="M38" s="275"/>
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="653" t="s">
+      <c r="A39" s="645" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="654"/>
+      <c r="B39" s="646"/>
       <c r="C39" s="182"/>
       <c r="D39" s="182"/>
       <c r="E39" s="199"/>
@@ -58887,10 +58932,10 @@
       <c r="M41" s="182"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="653" t="s">
+      <c r="A42" s="645" t="s">
         <v>502</v>
       </c>
-      <c r="B42" s="654"/>
+      <c r="B42" s="646"/>
       <c r="C42" s="182"/>
       <c r="D42" s="182"/>
       <c r="E42" s="199"/>
@@ -59435,10 +59480,10 @@
       <c r="M65" s="182"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="653" t="s">
+      <c r="A66" s="645" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="654"/>
+      <c r="B66" s="646"/>
       <c r="C66" s="182"/>
       <c r="D66" s="182"/>
       <c r="E66" s="199"/>
@@ -59609,16 +59654,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62626,8 +62671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D55:D56"/>
+    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -63716,26 +63761,26 @@
       <c r="J51" s="207"/>
       <c r="K51" s="207"/>
     </row>
-    <row r="52" spans="1:11" s="557" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="551" t="s">
+    <row r="52" spans="1:11" s="549" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="543" t="s">
         <v>1696</v>
       </c>
-      <c r="B52" s="552" t="s">
+      <c r="B52" s="544" t="s">
         <v>1052</v>
       </c>
-      <c r="C52" s="553" t="s">
+      <c r="C52" s="545" t="s">
         <v>975</v>
       </c>
-      <c r="D52" s="554" t="s">
+      <c r="D52" s="546" t="s">
         <v>2214</v>
       </c>
-      <c r="E52" s="555"/>
-      <c r="F52" s="555"/>
-      <c r="G52" s="555"/>
-      <c r="H52" s="555"/>
-      <c r="I52" s="555"/>
-      <c r="J52" s="556"/>
-      <c r="K52" s="556"/>
+      <c r="E52" s="547"/>
+      <c r="F52" s="547"/>
+      <c r="G52" s="547"/>
+      <c r="H52" s="547"/>
+      <c r="I52" s="547"/>
+      <c r="J52" s="548"/>
+      <c r="K52" s="548"/>
     </row>
     <row r="53" spans="1:11" s="471" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="468" t="s">
